--- a/medicine/Médecine vétérinaire/SIEV/SIEV.xlsx
+++ b/medicine/Médecine vétérinaire/SIEV/SIEV.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société d'Identification Électronique Vétérinaire, ou SIEV, est un ancien organisme gérant l'identification des animaux de compagnie en France, sauf le tatouage des chiens.
 La SIEV gérait ce qui concerne l'identification électronique (chiens, chats, furets et nouveaux animaux de compagnie), la distribution des numéros de tatouage pour chats et furets, les passeports pour animaux de compagnie ainsi que le « fichier national des carnivores autres que domestiques ».
